--- a/Modules/A2/Input Data_Geography Masters.xlsx
+++ b/Modules/A2/Input Data_Geography Masters.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apaar\GMS Process\GMS Process_Udaan\Modules\A2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehar.chand\Downloads\GMS-Process_v1\Modules\A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC17A86-DE27-4936-AFC6-B15A67A0C7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C74A1C-BC7C-4018-8CE6-25E23E9A91AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="A2_1_Zone_Master" sheetId="1" r:id="rId1"/>
+    <sheet name="A2_Geography_Master" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,15 +25,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Zone</t>
-  </si>
-  <si>
-    <t>Mi</t>
-  </si>
-  <si>
-    <t>NZZ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Zone Master Name</t>
+  </si>
+  <si>
+    <t>State Master Zone</t>
+  </si>
+  <si>
+    <t>State Master Status</t>
+  </si>
+  <si>
+    <t>State Master GST State Code</t>
+  </si>
+  <si>
+    <t>State Master GST State Name</t>
+  </si>
+  <si>
+    <t>State Master State</t>
+  </si>
+  <si>
+    <t>District Master Zone</t>
+  </si>
+  <si>
+    <t>District Master State</t>
+  </si>
+  <si>
+    <t>District Master District</t>
+  </si>
+  <si>
+    <t>District Master District Type</t>
+  </si>
+  <si>
+    <t>District Master Status</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>PinCode Master Zone</t>
+  </si>
+  <si>
+    <t>PinCode Master State</t>
+  </si>
+  <si>
+    <t>PinCode Master District</t>
+  </si>
+  <si>
+    <t>PinCode Master PinCode</t>
+  </si>
+  <si>
+    <t>PinCode Master Status</t>
+  </si>
+  <si>
+    <t>District Type Name</t>
+  </si>
+  <si>
+    <t>District Type Description</t>
+  </si>
+  <si>
+    <t>District Type Status</t>
+  </si>
+  <si>
+    <t>South Zone</t>
+  </si>
+  <si>
+    <t>KERALA</t>
+  </si>
+  <si>
+    <t>THRISSUR</t>
+  </si>
+  <si>
+    <t>nop</t>
+  </si>
+  <si>
+    <t>qrs</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>ABHJ</t>
+  </si>
+  <si>
+    <t>hik</t>
+  </si>
+  <si>
+    <t>kln</t>
+  </si>
+  <si>
+    <t>Tuw</t>
+  </si>
+  <si>
+    <t>Wxa</t>
+  </si>
+  <si>
+    <t>NORTH ZONE AA</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>NORTH ZONE</t>
+  </si>
+  <si>
+    <t>HARYANA</t>
+  </si>
+  <si>
+    <t>PALWAL</t>
+  </si>
+  <si>
+    <t>HIJK</t>
   </si>
 </sst>
 </file>
@@ -63,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -86,14 +191,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,31 +493,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>0</v>
       </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2">
+        <v>225917</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3">
+        <v>235597</v>
+      </c>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Modules/A2/Input Data_Geography Masters.xlsx
+++ b/Modules/A2/Input Data_Geography Masters.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehar.chand\Downloads\GMS-Process_v1\Modules\A2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apaar\GMS Process\GMS Process_Udaan\Modules\A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C74A1C-BC7C-4018-8CE6-25E23E9A91AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC17A86-DE27-4936-AFC6-B15A67A0C7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="A2_Geography_Master" sheetId="1" r:id="rId1"/>
+    <sheet name="A2_1_Zone_Master" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,120 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Yes</t>
+    <t>Zone</t>
   </si>
   <si>
-    <t>Zone Master Name</t>
+    <t>Mi</t>
   </si>
   <si>
-    <t>State Master Zone</t>
-  </si>
-  <si>
-    <t>State Master Status</t>
-  </si>
-  <si>
-    <t>State Master GST State Code</t>
-  </si>
-  <si>
-    <t>State Master GST State Name</t>
-  </si>
-  <si>
-    <t>State Master State</t>
-  </si>
-  <si>
-    <t>District Master Zone</t>
-  </si>
-  <si>
-    <t>District Master State</t>
-  </si>
-  <si>
-    <t>District Master District</t>
-  </si>
-  <si>
-    <t>District Master District Type</t>
-  </si>
-  <si>
-    <t>District Master Status</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>PinCode Master Zone</t>
-  </si>
-  <si>
-    <t>PinCode Master State</t>
-  </si>
-  <si>
-    <t>PinCode Master District</t>
-  </si>
-  <si>
-    <t>PinCode Master PinCode</t>
-  </si>
-  <si>
-    <t>PinCode Master Status</t>
-  </si>
-  <si>
-    <t>District Type Name</t>
-  </si>
-  <si>
-    <t>District Type Description</t>
-  </si>
-  <si>
-    <t>District Type Status</t>
-  </si>
-  <si>
-    <t>South Zone</t>
-  </si>
-  <si>
-    <t>KERALA</t>
-  </si>
-  <si>
-    <t>THRISSUR</t>
-  </si>
-  <si>
-    <t>nop</t>
-  </si>
-  <si>
-    <t>qrs</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>ABHJ</t>
-  </si>
-  <si>
-    <t>hik</t>
-  </si>
-  <si>
-    <t>kln</t>
-  </si>
-  <si>
-    <t>Tuw</t>
-  </si>
-  <si>
-    <t>Wxa</t>
-  </si>
-  <si>
-    <t>NORTH ZONE AA</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>NORTH ZONE</t>
-  </si>
-  <si>
-    <t>HARYANA</t>
-  </si>
-  <si>
-    <t>PALWAL</t>
-  </si>
-  <si>
-    <t>HIJK</t>
+    <t>NZZ</t>
   </si>
 </sst>
 </file>
@@ -168,7 +63,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -191,28 +86,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,214 +374,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2">
-        <v>93</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2">
-        <v>225917</v>
-      </c>
-      <c r="P2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <v>90</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3">
-        <v>235597</v>
-      </c>
-      <c r="P3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" t="s">
-        <v>0</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q16" s="2"/>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Modules/A2/Input Data_Geography Masters.xlsx
+++ b/Modules/A2/Input Data_Geography Masters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apaar\GMS Process\GMS Process_Udaan\Modules\A2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GMS Process_GIT\GMS-Process_v1\Modules\A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC17A86-DE27-4936-AFC6-B15A67A0C7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E39951-A353-48F0-8A47-B4F3F576173C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="3045" windowWidth="15300" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A2_1_Zone_Master" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Zone</t>
   </si>
   <si>
-    <t>Mi</t>
-  </si>
-  <si>
-    <t>NZZ</t>
+    <t>Zonepqrt</t>
   </si>
 </sst>
 </file>
@@ -90,10 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,29 +370,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
